--- a/database/AN_ep/expdata/1006.xlsx
+++ b/database/AN_ep/expdata/1006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malda\Documents\GitHub\jam3d\database\AN_ep\expdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C2D3A8-9858-4404-92F7-E75243694B17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AACD80-773A-4490-AE34-E4C7173419C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="3216" windowWidth="9870" windowHeight="8172" xr2:uid="{61E174AB-C476-44E6-8AF9-E64E270AEB7E}"/>
+    <workbookView xWindow="3744" yWindow="3276" windowWidth="9870" windowHeight="8172" xr2:uid="{61E174AB-C476-44E6-8AF9-E64E270AEB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C967DE29-175A-4590-91AE-8FC81E803CBE}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F2">
         <v>4.5999999999999996</v>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F3">
         <v>4.5999999999999996</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F4">
         <v>4.5999999999999996</v>
@@ -568,13 +568,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
         <v>4.5999999999999996</v>
@@ -600,13 +600,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F6">
         <v>4.5999999999999996</v>
@@ -632,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F7">
         <v>4.5999999999999996</v>
@@ -664,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F8">
         <v>4.5999999999999996</v>
@@ -696,13 +696,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F9">
         <v>4.5999999999999996</v>
@@ -728,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F10">
         <v>4.5999999999999996</v>
@@ -760,13 +760,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F11">
         <v>4.5999999999999996</v>
@@ -792,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
         <v>4.5999999999999996</v>
@@ -824,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F13">
         <v>4.5999999999999996</v>
@@ -856,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
         <v>4.5999999999999996</v>
@@ -888,13 +888,13 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F15">
         <v>4.5999999999999996</v>
@@ -920,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F16">
         <v>4.5999999999999996</v>
